--- a/Document/DPV.Boom/تابلو طراحی مدل کسب و کار.xlsx
+++ b/Document/DPV.Boom/تابلو طراحی مدل کسب و کار.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>ردیف</t>
   </si>
@@ -161,13 +161,55 @@
   </si>
   <si>
     <t>گرانترین فعالیتهای اصلی کدامند ؟</t>
+  </si>
+  <si>
+    <t>عموم افرادی که از تلفن همراه هوشمند استفاده میکنند و App سیستم فروشگاهی را بر روی تلفن همراه خود نصب و راه اندازی کرده اند و میتوانند از طریق آن بصورت آنلاین از فروشگاه دلخواه خود خرید کرده و سفارش را درب منزل یا محل کار تحویل بگیرند. بعلاوه کلیه فروشگاه هایی که عضو این مجموعه شدن و علاوه بر مشتری حضوری، مشتری های غیر حضوری خواهند داشت که نیازی نیست برای رسیدگی به درخواست آنها تلفنی پاسخگو باشند و مجبور باشند لیست سفارش ها را یادداشت نمایند بلکه همه ی این موارد را در نرم افزار سفارش گیری خود مشاهده میکنند.</t>
+  </si>
+  <si>
+    <t>مال ها و فروشگاه هایی که ترانکش بالایی دارند مثل هایپر استار. چنین فروشگاه هایی با توانمندی در تعدد مشتریان، تنوع اجناس، شبکه توزیع و محدوده آن، بیشترین تراکنش مالی را برای نرم افزار موبایل سیستم فروشگاهی ما خواهند داشت.</t>
+  </si>
+  <si>
+    <t>پایداری، نظم و پایبندی، بروز بودن لیست کالاها، تنوع اجناس، تنوع برند، زنجیره تامین و توزیع وسیع  - مصرف کننده (مشتری) منتظر رابطه ای مستحکم و دائمی برای رسیدگی به سفارشات خود میباشند. نظم و پایبندی در توزیع و دلیوری مهمترین انتظار مشتری از فروشگاه تحت پوشش App میباشد. همچنین تطابق بین لیست موجود در App با موجودی فروشگاه و کالای تحویل شده بسیار مهم و حیاتی است و در خریدهای بعدی نقش تعیین کننده دارد. همچنین مصرف کننده انتظار دارد کلیه برندهای مقبول جامعه از اجناس و کالاها در لیست کالاهای فروشگاه موجود باشد. (جنس ها جور باشد. یکی در میون نباشد.) زنجیره ی وسیع در توزیع کالا و شبکه ی توزیع قوی (وسعت محدوده سرویس دهی) بخوص در فروشگاه های مطرح و بزرگ، در تعدد مشتریان بسیار با اهمیت است.  همجچنین وسعت زنجیره ی تامین موجب تنوع در اقلام کالا و برند خواهد شد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سیستم ما سعی بر برقراری تمام روابط به مرور زمان شده است. استیبل بودن سیستم و همیشه در دسترس بودن آنها با برقراری یک دیتا سنتر قوی، نظم و پایبندی با انتخاب دلیوری من (پیک های فروشگاه) های شایسته و با دقت که مسلط به آدرس های محدوده ی سرویس دهی هستند. بروزرسانی لیست کالاهای موجود با لیست استاندارد App توسط یک اپراتور مرتبا انجام میشود. متخصصین مطالعه بازار سعی بر شناسایی برندهای با کیفیت و جدید مطابق با سلیقه افراد و حفظ برندهای محبوب و قدیمی تر برای برآورده کردن خواسته های مصرف کنندگان خواهند داشت. مسئولین و تصمیم گیرندگان فروشگاه های بزرگ با انتخاب مکان شعب مختلف فروشگاه و انتخاب تعداد پیکهای فروشگاه مطابق با حجم درخواست و سفارشات مشتریان سعی بر پوشش تمامی مناطق جغرافیای شهری را داشته باشند که مشتریان خود را به دلیل عدم پوشش دهی مناسب از دست ندهند. همچنین مسئولین با انتخاب زنجیره ی تامین کنندگان مطرح تنوع اقلام را همواره داشته باشند.  </t>
+  </si>
+  <si>
+    <t>مدل کسب و کار B2C میباشد و برای برقراری نیازمندی های مشتریان (مصرف کنندگان) طبق موارد مذکور، برقراری زیرساخت روابط بسیار پر اهمیت است.</t>
+  </si>
+  <si>
+    <t>هزینه تهیه App + هزینه دیتا سنتر (Cloud) + هزینه پشتیبانی App + هزینه زنجیره تامین + هزینه زنجیره توزیع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تبلیغات در فروشگاه، تبلیغات در شبکه های اجتماعی، تبلیغات در پیام کوتاه، تبلیغات در رسانه تلوزیون و رادیو، تابلوهای تبلیغاتی شهری </t>
+  </si>
+  <si>
+    <t>میتوانیم به مشتریان حضوری که شماره تماسشان را که جهت تکمیل اطلاعات مشتریان و اعلام تخفیفات گرفتیم، از طریق پیام کوتاه و یا شبکه های اجتماعی مثل تلگرام اطلاع رسانی کنیم.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چون مرجع چند نمونه از آنها شماره ی تلفن همراه میباشد. بنابراین در گرفتن اطلاعات یکپارچه هستیم. اما در مورد تبلیغات میدانی و شهری و تبلیغات تلویون و رادیو احتیاج به تحقیقات بازار و توجه به طیف مشتریان و تبلیغات در زمان مناسب میباشد. </t>
+  </si>
+  <si>
+    <t>با توجه به فراگیر شدن استفاده از تلفن همراه هوشمند و کاربری App بر روی تلفن همراه، تبلیغات از این طریق و شبکه های اجتماعی ارتباطی مثل تلگرام،  متداول تر، کم هزینه تر، موثرتر میباشد.</t>
+  </si>
+  <si>
+    <t>قطعا تبلیغات در تلوزیون و رادیو و همینطور تابلوهای تبلیغاتی شهری</t>
+  </si>
+  <si>
+    <t>از آنجا که بستر بیزینس ما بصوت اجتناب ناپذیر و توسط صاحبان تلفن همراه برقرار میباشد و افراد خواهان استفاده ی بهینه از تلفن همراه خویش میباشند. بنابراین آماده سازی App بر بستر تلفن همراه جهت سفارش دهی کالا از سوپرمارکت بسیار ارزش آفرین است.</t>
+  </si>
+  <si>
+    <t>امکان سفارش دهی کالا از طریق تلفن همراه بدون نیاز به تماس تلفنی - امکان مشاهده عکس کالا به هنگام انتخاب آن - امکان تعیین زمان تحویل کالا</t>
+  </si>
+  <si>
+    <t>صرفه جویی در زمان و وقت مشتری، ارائه امکاناتی نظیر سفارش کالا با دیدن عکس آن، امکان پرداخت آنلاین هزینه، امکان</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +232,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
@@ -267,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,21 +331,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,410 +670,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.5703125" style="12" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="141.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Document/DPV.Boom/تابلو طراحی مدل کسب و کار.xlsx
+++ b/Document/DPV.Boom/تابلو طراحی مدل کسب و کار.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>ردیف</t>
   </si>
   <si>
-    <t>بخش</t>
+    <t>گروه</t>
   </si>
   <si>
     <t>سوال</t>
@@ -34,45 +34,45 @@
     <t>ارتباط با مشتریان</t>
   </si>
   <si>
+    <t>کانال توزیع</t>
+  </si>
+  <si>
     <t>ارزش پیشنهادی</t>
   </si>
   <si>
     <t>فعالیتهای اصلی</t>
   </si>
   <si>
+    <t>منابع اصلی</t>
+  </si>
+  <si>
     <t>شرکای کلیدی</t>
   </si>
   <si>
-    <t>کانال توزیع</t>
-  </si>
-  <si>
-    <t>منابع اصلی</t>
-  </si>
-  <si>
     <t>جریان درآمد</t>
   </si>
   <si>
     <t>ساختار هزینه ها</t>
   </si>
   <si>
-    <t xml:space="preserve">برای چه کسانی ارزش آفرینی میکنیم؟ </t>
-  </si>
-  <si>
-    <t>مهم ترین مشتریان ما چه کسانی هستند ؟</t>
+    <t>برای چه کسانی ارزش آفرینی میکنیم ؟</t>
+  </si>
+  <si>
+    <t>مهمترین مشتریان ما چه کسانی هستند ؟</t>
+  </si>
+  <si>
+    <t>هر بخش از مشتریان انتظار برقراری و حفظ چه نوع رابطه ای را از ما دارند ؟</t>
+  </si>
+  <si>
+    <t>کدامیک از این رابطه ها برقرار شده ؟</t>
+  </si>
+  <si>
+    <t>این روابط چگونه با بقیه مدل کسب و کار ما عجین شده اند ؟</t>
   </si>
   <si>
     <t>چقدر هزینه بر هستند ؟</t>
   </si>
   <si>
-    <t xml:space="preserve">این روابط چگونه با بقیه مدل کسب و کار ما عجین میشوند ؟ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">هر بخش از مشتریان انتظار برقراری و حفظ چه نوع رابطه ای را از ما دارند ؟ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدامیک از رابطه ها برقرار شده ؟ </t>
-  </si>
-  <si>
     <t>میخواهیم از طریق چه کانالهایی به بخش مشتریان دسترسی پیدا کنیم ؟</t>
   </si>
   <si>
@@ -85,25 +85,37 @@
     <t>کدامیک بهتر عمل میکنند ؟</t>
   </si>
   <si>
-    <t>کدامها بیشترین هزینه را میبرند ؟</t>
+    <t>کدام ها بیشترین هزینه را میبرند ؟</t>
   </si>
   <si>
     <t>ما چگونه آنها را با نیازهای مشتریان هماهنگ میکنیم ؟</t>
   </si>
   <si>
-    <t>به مشتریانمان چه ارزشی ارائه میدهیم ؟</t>
+    <t>سفارش گیری از طریق App با توجه به نزدیکترین شعبه به محدوده ی مشتری و دلیوری از طریق همان شعبه در کمترین زمان ممکن</t>
+  </si>
+  <si>
+    <t>رسیدگی و تامین سفارش از طریق شعب فروشگاه انجام میگیرد و افراد توزیع کننده (پیک فروشگاه) در شعب فروشگاه مستقر هستند.</t>
+  </si>
+  <si>
+    <t>با تنوع اقلام و کالاها، دلیوری به موقع و رایگان و ارائه پیشنهادات تخفیف با نگهداری سوابق خرید مشتریان</t>
+  </si>
+  <si>
+    <t>به مشتریانمان چه ارزشی را ارائه میدهیم ؟</t>
   </si>
   <si>
     <t>به حل کدامیک از مسائل مشتریانمان کمک میکنیم ؟</t>
   </si>
   <si>
-    <t>بسته ی پیشنهادی ما (آمیخته محصولات و خدمات) به هر بخش از مشتریان چیست ؟</t>
-  </si>
-  <si>
-    <t>کدامیک از نیازهای مشتریان را برآورده میکنیم ؟</t>
-  </si>
-  <si>
-    <t>ارزش پیشنهادی ما چه فعالیتهای اصلی نیاز دازد ؟</t>
+    <t>بسته ی پیشنهادی ما (آمیخته ی محصولات و خدمات) به هر بخش از مشتریان چیست ؟</t>
+  </si>
+  <si>
+    <t>کدامیک از نیازهای مشتریان را ارضا میکنیم ؟</t>
+  </si>
+  <si>
+    <t>کمبود وقت، پرداخت آنلاین، بهره وری از یک شبکه اجتماعی-تعاملی تخصصی در مباحث خانواده و آشپزی .و بروز با محوریت عکس که جذاب است و ارائه کننده مطالب سنگین،تکراری و خسته کننده نیست بلکه در راستای فرهنگ سازی برای تولید محتوا از طریق کاربران و تبادل نظرات بین آنها قدم برمیدارد - توزیع رایگان کالا</t>
+  </si>
+  <si>
+    <t>ارزش پیشنهادی ما چه فعالیتهای اصلی نیاز دارد ؟</t>
   </si>
   <si>
     <t>کانال توزیع ما چه ؟</t>
@@ -115,7 +127,19 @@
     <t>جریان درآمد چطور ؟</t>
   </si>
   <si>
-    <t>ارزش پیشنهادی ما به چه منابع اصلی نیاز دارد ؟</t>
+    <t>تولید App رفاه برای استفاده ی مشتریان رفاه - تولید کنسول دریافت سفارشات برای استفاده ی فروشگاه ها که این برنامه در 2 نسخه ستاد و شعبه تهیه میشود -  پشتیبانی از نرم افزارهای مذکور و آماده سازی زیرساخت مناسب برای اجرایی ساختن آنها - برپایی شبکه توزیع مناسب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخدام دلیوری من (پیک فروشگاه) جهت امور مربوط به توزیع سفارشات با توجه با حجم نیازهای شعبه </t>
+  </si>
+  <si>
+    <t>پیاده سازی باشگاه مشتریان و بهره مندی مشتریان وفادار از امکانات باشگاه نظیر تخفیفات و طرح ها و جشنواره ها و جوایز، امکان پیشنهاد تخفیف به مشتریات با توجه به نگهداری سوابق خرید مشتریان</t>
+  </si>
+  <si>
+    <t>هماهنگی بین کالاهای موجود در فروشگاه با دستورات آشپزی منتشر شده از طریق App و یا در صورت عدم انطباق، تامین آن کالاها از تامین کننده</t>
+  </si>
+  <si>
+    <t>ارزش پیشنهادی ما چه منابع اصلی نیاز دارد ؟</t>
   </si>
   <si>
     <t>کانال توزیع ما چطور ؟</t>
@@ -127,18 +151,42 @@
     <t>جریان درآمد ؟</t>
   </si>
   <si>
+    <t>تامین کالا و محصولات متنوع - کانال توزیع وسیع در سطح شهر</t>
+  </si>
+  <si>
+    <t>نگهداری سوابق مشتریان و تولید باشگاه مشتریان و مزایای آنها در App</t>
+  </si>
+  <si>
+    <t>منابع انسانی برای رسیدگی به سفارشات و توزیع آنها، همینطور برای نظارت بر محتوای تولید افراد، نظرات و .... در App</t>
+  </si>
+  <si>
+    <t>کالاهای متنوع، App پایدار، محتوای بروز و جذاب</t>
+  </si>
+  <si>
     <t>شرکای کلیدی ما که هستند ؟</t>
   </si>
   <si>
     <t>تامین کنندگان کلیدی ما که هستند ؟</t>
   </si>
   <si>
-    <t>چه منابع اصلی را از شرکایمان بدست می آوریم ؟</t>
+    <t>چه منابع اصلی از شرکایمان به دست می آوریم ؟</t>
   </si>
   <si>
     <t>شرکایمان چه فعالیتهای اصلی را انجام میدهند ؟</t>
   </si>
   <si>
+    <t>تامین کنندگان و شرکتهای پخش برندهای مطرح مواد غذایی، مواد بهداشتی و شوینده و همینطور ظروف آشپزی و سرو غذا</t>
+  </si>
+  <si>
+    <t>تولید کنندگان App - ارائه کنندگان خدمات App - تولیدکنندگان محتوا (داخلی و خارجی) - تامین کنندگان کالا - توزیع کنندگان کالا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بستر خرید(فروشگاه آنلاین) - خدمات - محتوا - کالا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تولید App و ارائه خدمات وابسته به آن - تامین محتوا - تامین و توزیع کالا </t>
+  </si>
+  <si>
     <t>به چه بهایی مشتریان ما واقعا پول میدهند ؟</t>
   </si>
   <si>
@@ -151,7 +199,22 @@
     <t>ترجیح میدهند که چگونه بپردازند ؟</t>
   </si>
   <si>
-    <t>هر جریان درآمد چگونه به درآمد کل کمک میرساند ؟</t>
+    <t>کالای درخواستی در زمان مقرر به دستشان برسد - استفاده از App پیچیده نباشد و کاملا ساده و کاربر پسند باشد (توجه به این نکته که ممکن است بسیاری از کاربران App زنان خانه داری هستند که خواستار بهره مندی از این امکانات به ساده ترین نحو هستند، ضروری است) - کالاها متنوع باشند و مشتری را مجبور به خرید از یک سری برندهای محدود نکنند.</t>
+  </si>
+  <si>
+    <t>چون هم اکنون خرید بصورت حضوری انجام میگیرد، پرداخت نیز بصورت نقدی و یا از طریق دستگاه های POS میباشد.</t>
+  </si>
+  <si>
+    <t>هر جریان درآمد چگونه به درآمد کل کمک میکند ؟</t>
+  </si>
+  <si>
+    <t>بهای خرید کالا - بهای حمل کالا - بهای بردن کالا به منزل با اتومبیل شخصی با تاکسی - بهای پارکینگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خرید آنلاین از طریق اینترنت و یا دستگاه های POS بنا به عدم نیاز به حمل پول نقد و مشکلات پول خرد ترجیح داده میشود. </t>
+  </si>
+  <si>
+    <t>کانالهای فروش افزایش می یابند و با توجه به سادگی استفاده از آنها تمایل افراد به خرید در روزهای شلوغ، تعطیل، سرد و یا گرم بیشتر میشود. بنابراین علاوه بر چند شعبه فیزیکی محدود از فروشگاه رفاه، هزارن فروشگاه مجازی در دست افراد خواهیم داشت که به افزایش درآمد کل کمک قابل توجهی میکند.</t>
   </si>
   <si>
     <t>مهمترین هزینه های اصلی در مدل کسب و کار ما کدام هستند ؟</t>
@@ -163,53 +226,56 @@
     <t>گرانترین فعالیتهای اصلی کدامند ؟</t>
   </si>
   <si>
-    <t>عموم افرادی که از تلفن همراه هوشمند استفاده میکنند و App سیستم فروشگاهی را بر روی تلفن همراه خود نصب و راه اندازی کرده اند و میتوانند از طریق آن بصورت آنلاین از فروشگاه دلخواه خود خرید کرده و سفارش را درب منزل یا محل کار تحویل بگیرند. بعلاوه کلیه فروشگاه هایی که عضو این مجموعه شدن و علاوه بر مشتری حضوری، مشتری های غیر حضوری خواهند داشت که نیازی نیست برای رسیدگی به درخواست آنها تلفنی پاسخگو باشند و مجبور باشند لیست سفارش ها را یادداشت نمایند بلکه همه ی این موارد را در نرم افزار سفارش گیری خود مشاهده میکنند.</t>
-  </si>
-  <si>
-    <t>مال ها و فروشگاه هایی که ترانکش بالایی دارند مثل هایپر استار. چنین فروشگاه هایی با توانمندی در تعدد مشتریان، تنوع اجناس، شبکه توزیع و محدوده آن، بیشترین تراکنش مالی را برای نرم افزار موبایل سیستم فروشگاهی ما خواهند داشت.</t>
-  </si>
-  <si>
-    <t>پایداری، نظم و پایبندی، بروز بودن لیست کالاها، تنوع اجناس، تنوع برند، زنجیره تامین و توزیع وسیع  - مصرف کننده (مشتری) منتظر رابطه ای مستحکم و دائمی برای رسیدگی به سفارشات خود میباشند. نظم و پایبندی در توزیع و دلیوری مهمترین انتظار مشتری از فروشگاه تحت پوشش App میباشد. همچنین تطابق بین لیست موجود در App با موجودی فروشگاه و کالای تحویل شده بسیار مهم و حیاتی است و در خریدهای بعدی نقش تعیین کننده دارد. همچنین مصرف کننده انتظار دارد کلیه برندهای مقبول جامعه از اجناس و کالاها در لیست کالاهای فروشگاه موجود باشد. (جنس ها جور باشد. یکی در میون نباشد.) زنجیره ی وسیع در توزیع کالا و شبکه ی توزیع قوی (وسعت محدوده سرویس دهی) بخوص در فروشگاه های مطرح و بزرگ، در تعدد مشتریان بسیار با اهمیت است.  همجچنین وسعت زنجیره ی تامین موجب تنوع در اقلام کالا و برند خواهد شد.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در سیستم ما سعی بر برقراری تمام روابط به مرور زمان شده است. استیبل بودن سیستم و همیشه در دسترس بودن آنها با برقراری یک دیتا سنتر قوی، نظم و پایبندی با انتخاب دلیوری من (پیک های فروشگاه) های شایسته و با دقت که مسلط به آدرس های محدوده ی سرویس دهی هستند. بروزرسانی لیست کالاهای موجود با لیست استاندارد App توسط یک اپراتور مرتبا انجام میشود. متخصصین مطالعه بازار سعی بر شناسایی برندهای با کیفیت و جدید مطابق با سلیقه افراد و حفظ برندهای محبوب و قدیمی تر برای برآورده کردن خواسته های مصرف کنندگان خواهند داشت. مسئولین و تصمیم گیرندگان فروشگاه های بزرگ با انتخاب مکان شعب مختلف فروشگاه و انتخاب تعداد پیکهای فروشگاه مطابق با حجم درخواست و سفارشات مشتریان سعی بر پوشش تمامی مناطق جغرافیای شهری را داشته باشند که مشتریان خود را به دلیل عدم پوشش دهی مناسب از دست ندهند. همچنین مسئولین با انتخاب زنجیره ی تامین کنندگان مطرح تنوع اقلام را همواره داشته باشند.  </t>
-  </si>
-  <si>
-    <t>مدل کسب و کار B2C میباشد و برای برقراری نیازمندی های مشتریان (مصرف کنندگان) طبق موارد مذکور، برقراری زیرساخت روابط بسیار پر اهمیت است.</t>
-  </si>
-  <si>
-    <t>هزینه تهیه App + هزینه دیتا سنتر (Cloud) + هزینه پشتیبانی App + هزینه زنجیره تامین + هزینه زنجیره توزیع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تبلیغات در فروشگاه، تبلیغات در شبکه های اجتماعی، تبلیغات در پیام کوتاه، تبلیغات در رسانه تلوزیون و رادیو، تابلوهای تبلیغاتی شهری </t>
-  </si>
-  <si>
-    <t>میتوانیم به مشتریان حضوری که شماره تماسشان را که جهت تکمیل اطلاعات مشتریان و اعلام تخفیفات گرفتیم، از طریق پیام کوتاه و یا شبکه های اجتماعی مثل تلگرام اطلاع رسانی کنیم.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">چون مرجع چند نمونه از آنها شماره ی تلفن همراه میباشد. بنابراین در گرفتن اطلاعات یکپارچه هستیم. اما در مورد تبلیغات میدانی و شهری و تبلیغات تلویون و رادیو احتیاج به تحقیقات بازار و توجه به طیف مشتریان و تبلیغات در زمان مناسب میباشد. </t>
-  </si>
-  <si>
-    <t>با توجه به فراگیر شدن استفاده از تلفن همراه هوشمند و کاربری App بر روی تلفن همراه، تبلیغات از این طریق و شبکه های اجتماعی ارتباطی مثل تلگرام،  متداول تر، کم هزینه تر، موثرتر میباشد.</t>
-  </si>
-  <si>
-    <t>قطعا تبلیغات در تلوزیون و رادیو و همینطور تابلوهای تبلیغاتی شهری</t>
-  </si>
-  <si>
-    <t>از آنجا که بستر بیزینس ما بصوت اجتناب ناپذیر و توسط صاحبان تلفن همراه برقرار میباشد و افراد خواهان استفاده ی بهینه از تلفن همراه خویش میباشند. بنابراین آماده سازی App بر بستر تلفن همراه جهت سفارش دهی کالا از سوپرمارکت بسیار ارزش آفرین است.</t>
-  </si>
-  <si>
-    <t>امکان سفارش دهی کالا از طریق تلفن همراه بدون نیاز به تماس تلفنی - امکان مشاهده عکس کالا به هنگام انتخاب آن - امکان تعیین زمان تحویل کالا</t>
-  </si>
-  <si>
-    <t>صرفه جویی در زمان و وقت مشتری، ارائه امکاناتی نظیر سفارش کالا با دیدن عکس آن، امکان پرداخت آنلاین هزینه، امکان</t>
+    <t>تولید و پشتیبانی App - تولید محتوا برای App - تامین و توزیع کالا</t>
+  </si>
+  <si>
+    <t>تامین کالا و سرمایه - تامین نیروی انسانی مناسب با پستها</t>
+  </si>
+  <si>
+    <t>تولید App - تولید محتوای مناسب و جذاب - ارائه خدمات وابسته به App</t>
+  </si>
+  <si>
+    <t>1.کلیه کاربران App که آن را بر روی گوشی های تلفن همراه هوشمند و یا تبلتهای خود نصب و راه اندازی کرده اند و علاقمند به App های تعاملی با موضوعات تخصصی نظیر خرید کالاهای روزمره از سوپرمارکت میباشند 2. شرکت و مجموعه فروشگاه های زنجیره ای و مستقل (هایپرمارکت و سوپرمارکت) که در ازای ارائه ی لیست کالاها به همراه قیمت آنها و خدمات دلیوری در مقصد، کالاهای خود را بصورت آنلاین به فروش میرسانند.</t>
+  </si>
+  <si>
+    <t>کاربران App که اقدام به خرید آنلاین از طریق App میکنند و این خرید مکرر انجام میشود. همینطور کاربرانی که در ازای یک خرید تعداد کالاهای زیادی را میخرند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دسترس و کاربرپسند بودن App - رابطه ای پویا، دوجانبه و پایدار - ارائه ارزش افزوده ای نظیر رایگان بودن ارسال کالاها و همچینطور تخفیفات در کالاها - تنوع کالاها برای سلیقه های مختلف - دلیوری به موقع و رایگان - هماهنگی بین انبار کالاها و درخت دسته بندی کالا در App - خدمات باشگاه مشتریان و امتیازات مشتریان وفادار - تخفیفات، جوایز، طرح ها و جشنواره ها - وجود انبار کالا بجای تامین از تامین کننده </t>
+  </si>
+  <si>
+    <t>1. تنوع اقلام و کالاها، بنا به ماهیت هایپرمارکت بودن ایگمارت برقرار است 2.دلیوری به نقاط مختلف شهری بنا به وجود شعب فروشگاه ایگمارت در همه ی مناطق شهری زیرساخت خوبی دارد 3. ارائه خدمات و کالاهای جدید مثل کیترینگ صبحانه جدید از جانب این مجموعه کمک قابل توجهی به جلب مشتری خواهد کرد.</t>
+  </si>
+  <si>
+    <t>1. هزینه تولید App و پشتیبانی از آن 2.هزینه تولید محتوا برای App و 3. هزینه توزیع کالا 4.هزینه تامین کالا</t>
+  </si>
+  <si>
+    <t>همانطور که در مورد قبلی اشاره شد، بسیاری از موارد مهم هم اینک با موارد موجود عجین است. مثل؛ تنوع کالاها، انبار موجودی کالا بجای تامین کالا از تامین کننده، دلیوری به نقاط مختلف شهری. اما بنابه تازه بودن نوع و بستر بیزینس مدل، موارد تازه ای باید تولید و اجرا شود.</t>
+  </si>
+  <si>
+    <t>هم اکنون تحویل سفارش بصورت حضوری و با مراجعه مشتری به یکی از شعب فروشگاه ایگمارت انجام میگیرد.</t>
+  </si>
+  <si>
+    <t>از آنجا که فروش آنلاین در مجموعه ایگمارت برای اولین بار است که اجرایی میشود و همینطور نوع خاص اجرای مدل بیزینسی و طرح آن خیلی قابل حدس نیست اما طبق پیش بینی ها App علاوه بر ساختار فروشگاه آنلاین بودن، سعی بر نیازسازی برای افراد دارد. بنابراین کاربران جهت تامین نیازهای روزمره، کالاهای مورد نیاز خود را از طریق App سفارش میدهند. به علاوه با توجه به مشغله روز افزون افراد در جامعه، ترافیک در خیابان ها، شلوغی پارکینگ و صندوق در فروشگاه ها و عدم امکان پیاده سازی دسته بندی صحیح کالاها بصورت فیزیکی و عدم امکان جستجوی اتوماتیک پیش بینی میشود که App به مراتب بهتر عمل میکند.</t>
+  </si>
+  <si>
+    <t>در نوع فیزیکی حتما باید یک فروشگاه بزرگ در یک نقطه قابل قبول از شهر و تعداد زیادی کارمند و صندوقدار برای رسیدگی به  اوامر مشتریان حضور داشته باشند. همینطور چینش کالاها در قفسه ها با توجه به دسته بندی آنها باشد.در نوع مجازی احتیاجی به این هزینه ها نیست اما در عوض تولید و پشتیبانی از App و فرایند رسیدگی به سفارشات و توزیع آنها هزینه هایی را در بر دارد.</t>
+  </si>
+  <si>
+    <t>امکان خرید و پرداخت آنلاین بدون نیاز به مراجعه حضوری به شعب فروشگاه و صرف وقت در رسیدن به فروشگاه، جستجوی اجناس در بین قفسه ها، حمل اجناس در فروشگاه، تا خودرو، تا منزل، پیدا کردن جاپارک و مشکلات پارکینگ خودرو - امکان بهره وری از پیشنهادات تخفیف کالاها با توجه به نگهداری سابقه خرید در App - امکان بهره وری از مزایای باشگاه مشتریان، امکان تحویل رایگان اجناس طبق زمان درخواستی، امکان شرکت در نظرسنجی تولید کنندگان محتوای App</t>
+  </si>
+  <si>
+    <t>اپلیکیشن App تلفن همراه (تبلت) جهت سفارش گذاری و خرید کالاهای FMCG از سوپرمارکت. کاربر مصرف کننده امکان ثبتنام در سیستم و ورود به سیستم، انتخاب سوپرمارکت، سفارش گذاری کالاها را دارد. کاربر میتواند زمان تحویل کالا، آدرس تحویل و نوع تحویل که شامل 2 مورد "میام میبرم" و "خودتون بیرید" را انتخاب کند. کاربر همینطور امکان مشاهده ی درخت دسته بندی کالاها، لیست کالاها، جستجو در کالاها را دارد. کاربر میتواند کالاهای دلخواه را به لیست علاقمندی های خود (فهرست من) اضافه کند تا در هر موقعی با مراجعه به آن براحتی کالا را سفارش دهد.. کاربر میتواند لیست سفارشهای قبلی خود را ببیند و دوباره آن را سفارش دهد. کاربر به ازای ارسال هر سفارش پیغامی از سمت سوپرمارکت دریافت میکند.</t>
+  </si>
+  <si>
+    <t>نیاز خرید غیر حضوری بدون استفاده از تماس تلفنی بر اساس این سناریو مرتفع میگردد. احتیاجی نیست که برای متوجه کردن فروشنده در مورد کالای مورد نظر انرژی زیادی هدر داد. بلکه با دیدن عکس کالا و ویژگی های آن انتخاب بسیار ساده میشود. امکان انتخاب زمان تحویل نیز ویژگی خاص این اپلیکیشن میباشد.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +284,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
@@ -237,13 +303,6 @@
       <charset val="178"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="B Nazanin"/>
@@ -322,47 +381,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,442 +734,484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.5703125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="D26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="141.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="D28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="D29" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13" t="s">
+    <row r="30" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="D30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="D31" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+      <c r="D32" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="10" t="s">
+      <c r="C35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="10" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="10"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B35:B37"/>
@@ -1114,6 +1220,7 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
